--- a/relatorio_final.xlsx
+++ b/relatorio_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micae\OneDrive\Área de Trabalho\ADS\Inteligência Artificial\Trabalhos\projeto_alg-geneticos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A567A1-C03E-4927-BCEF-952D5E5BA1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36384647-336B-4F74-8680-6A6C19C7FF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,9 +205,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>As 4 melhores configurações foram selecionadas com base na maior taxa de convergência e no menor tempo médio de execução durante a Etapa 1, garantindo eficiência.</t>
-  </si>
-  <si>
     <t>0.60</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
     <t>Escolha da Melhor Configuração Global</t>
   </si>
   <si>
-    <t>A melhor configuração global foi selecionada com base na maior taxa de convergência e no menor tempo médio ao ser testada em todos os 5 problemas.</t>
-  </si>
-  <si>
     <t>Configuração Global</t>
   </si>
   <si>
@@ -317,6 +311,14 @@
   </si>
   <si>
     <t>0.35</t>
+  </si>
+  <si>
+    <t>As 4 melhores configurações foram selecionadas com base na maior taxa de convergência 
+e no menor tempo médio de execução durante a Etapa 1, garantindo eficiência.</t>
+  </si>
+  <si>
+    <t>A melhor configuração global foi selecionada com base na maior taxa de convergência 
+e no menor tempo médio ao ser testada em todos os 5 problemas.</t>
   </si>
 </sst>
 </file>
@@ -398,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -406,6 +408,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,17 +715,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.5546875" customWidth="1"/>
     <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="149.21875" customWidth="1"/>
+    <col min="5" max="5" width="79.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1220,7 +1225,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
@@ -1233,8 +1238,8 @@
       <c r="D34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>61</v>
+      <c r="E34" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1245,16 +1250,16 @@
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
@@ -1269,37 +1274,37 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>6</v>
@@ -1308,22 +1313,22 @@
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -1344,7 +1349,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>9</v>
@@ -1359,37 +1364,37 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>9</v>
@@ -1404,16 +1409,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E46" s="1"/>
     </row>
@@ -1434,7 +1439,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>12</v>
@@ -1449,43 +1454,43 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>18</v>
@@ -1494,16 +1499,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -1524,7 +1529,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>15</v>
@@ -1539,43 +1544,43 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
@@ -1584,25 +1589,25 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>60</v>
@@ -1610,8 +1615,8 @@
       <c r="D59" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>94</v>
+      <c r="E59" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1628,18 +1633,18 @@
         <v>60</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>60</v>
